--- a/medicine/Mort/Cimetière_de_L'Haÿ-les-Roses/Cimetière_de_L'Haÿ-les-Roses.xlsx
+++ b/medicine/Mort/Cimetière_de_L'Haÿ-les-Roses/Cimetière_de_L'Haÿ-les-Roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_L%27Ha%C3%BF-les-Roses</t>
+          <t>Cimetière_de_L'Haÿ-les-Roses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de L'Haÿ-les-Roses est le cimetière municipal de la ville de L'Haÿ-les-Roses dans la grande banlieue parisienne du Val-de-Marne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_L%27Ha%C3%BF-les-Roses</t>
+          <t>Cimetière_de_L'Haÿ-les-Roses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a été ouvert à son emplacement actuel en 1822. Il a été agrandi en 1865 et en 1945[1]. La partie ancienne du cimetière a été préservée. Il est dominé près de l'entrée par un dais pyramidal, tombe de l'industriel local et maire de la ville, Pierre Bronzac (1787-1870), et un haut monument aux morts est érigé au milieu de la place coupant l'allée principale, œuvre d'Arthur Bulard[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a été ouvert à son emplacement actuel en 1822. Il a été agrandi en 1865 et en 1945. La partie ancienne du cimetière a été préservée. Il est dominé près de l'entrée par un dais pyramidal, tombe de l'industriel local et maire de la ville, Pierre Bronzac (1787-1870), et un haut monument aux morts est érigé au milieu de la place coupant l'allée principale, œuvre d'Arthur Bulard.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_L%27Ha%C3%BF-les-Roses</t>
+          <t>Cimetière_de_L'Haÿ-les-Roses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">René Baudichon (1878-1963), sculpteur
 Émile Baudson (1874-1956), sculpteur et historien de l'art
@@ -550,10 +566,10 @@
 Arthur Bulard (1870-1958), sculpteur
 Ketty Chaix (1924-1978), dernière conductrice de fiacres à Paris
 Eugène Chevreul (1786-1889), chimiste, membre de l'académie des sciences et maire de la ville (chapelle)
-Famille Dispan de Floran: Louis (1863-1922), professeur au lycée Lakanal, fondateur de la section locale de la ligue des droits de l'homme ; Thérèse (1857-1933), son épouse, militante socialiste et pacifiste du rapprochement franco-allemand[2] ; Suzanne (1900-2000), leur fille, soliste à l'orchestre Pasdeloup, aux concerts Lamoureux et aux concerts Colonne
+Famille Dispan de Floran: Louis (1863-1922), professeur au lycée Lakanal, fondateur de la section locale de la ligue des droits de l'homme ; Thérèse (1857-1933), son épouse, militante socialiste et pacifiste du rapprochement franco-allemand ; Suzanne (1900-2000), leur fille, soliste à l'orchestre Pasdeloup, aux concerts Lamoureux et aux concerts Colonne
 François Dyrek (1933-1999), comédien
 Gaston Gandon (1872-1941), graveur, notamment de timbres
-Alfred Lepère (1827-1904), peintre et sculpteur, prix de Rome 1852 et son épouse, Désirée Maucuit (1823-1891), peintre[3]
+Alfred Lepère (1827-1904), peintre et sculpteur, prix de Rome 1852 et son épouse, Désirée Maucuit (1823-1891), peintre
 Rouben Mélik (1921-2007, poète d'origine arménienne et son épouse Ella Turkian (1919-1997), sculptrice
 Adolphe Steinheil (1850-1908), peintre, fils du suivant
 Auguste Steinheil (1814-1885), peintre
